--- a/TPV_Source/Testcode/Longterm_test.xlsx
+++ b/TPV_Source/Testcode/Longterm_test.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Iver\Documents\GitHub\TPV_Skjema\TPV_Source\Testcode\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Iver\github\TPV_Skjema\TPV_Source\Testcode\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12210" activeTab="7"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="26250" windowHeight="8535" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="January" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="11">
   <si>
     <t>Spindel</t>
   </si>
@@ -60,6 +60,9 @@
   </si>
   <si>
     <t>23.07.2017, Sun</t>
+  </si>
+  <si>
+    <t>24.07.2017, Mon</t>
   </si>
 </sst>
 </file>
@@ -777,13 +780,13 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J24"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
+  <dimension ref="A1:J25"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="15.140625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="7.7109375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="15.7109375" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="15.85546875" bestFit="1" customWidth="1"/>
@@ -856,6 +859,38 @@
         <v>0</v>
       </c>
     </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>10</v>
+      </c>
+      <c r="B25">
+        <v>1</v>
+      </c>
+      <c r="C25">
+        <v>1</v>
+      </c>
+      <c r="D25">
+        <v>1</v>
+      </c>
+      <c r="E25">
+        <v>0</v>
+      </c>
+      <c r="F25">
+        <v>0</v>
+      </c>
+      <c r="G25">
+        <v>0</v>
+      </c>
+      <c r="H25">
+        <v>0</v>
+      </c>
+      <c r="I25">
+        <v>0</v>
+      </c>
+      <c r="J25">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -865,7 +900,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:J1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
